--- a/AWP.xlsx
+++ b/AWP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBL\pyPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E8C5A6-2F53-4418-A716-5F14687554BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61874E7-1367-43E6-92DB-015F51B0C867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="5430" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -1984,15 +1984,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B534"/>
+  <dimension ref="A1:B527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>9997.1200000000008</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>10014.200000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>9996.39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>9989.77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>10019.69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>10033.459999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>10011.86</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>9996.73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>10013.459999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>9999.33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>10023.61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>10038.219999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>10036.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>10027.85</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>10041.57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>10102.209999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>10145.049999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>10157.86</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>10158.58</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>10186.76</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>10207.67</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>10255.16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>10301.75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>10338.299999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>10378</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>10374.700000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>10411.049999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>10415.48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>10458.549999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>10465.67</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>10525.82</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>10566.13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>10587.77</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>10648.74</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>10668.79</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>10690.81</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>10672</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>10693.53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>10627.9</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>10565.87</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>10679.08</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>10620.42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>10576.38</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>10542.66</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>10586.36</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>10601.24</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>10647.01</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>10685.51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>10693.23</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>10697.71</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>10709.25</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>10739.25</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>10717.19</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>10698.76</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>10759.41</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2448,7 +2451,7 @@
         <v>10769.2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>10761.62</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>10737.38</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>10733.06</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>10763.84</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>10784.52</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>10881.91</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>10942.08</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>11003.27</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>11044.31</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>11079.94</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>11103.36</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>11072.57</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>11008.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>10986.59</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>10958.73</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>10958.44</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>10980.95</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>10974.37</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>10980.3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>11020.77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>11067.65</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>11061.87</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>11086.89</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>11121.24</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2648,7 +2651,7 @@
         <v>11145.47</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>11242.68</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>11406.36</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>11464.81</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>11438.46</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>11438.36</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>11443.47</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>11448.85</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>11502.73</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2720,7 +2723,7 @@
         <v>11490.5</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2728,7 +2731,7 @@
         <v>11480.44</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>11422.54</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>11431.59</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>11494.65</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>11480.9</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>11547.25</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>11549.04</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>11535.93</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>11549.61</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>11505.15</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>11463.94</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>11505.79</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>11551.33</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2832,7 +2835,7 @@
         <v>11586.21</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>11629.36</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>11605.96</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>11624.13</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>11690.98</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>11729.94</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>11779.37</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>11701.43</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>11809.06</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>11899.3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>12102.23</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>12215.54</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>12128.77</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>12072.84</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>12025.1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>12002.02</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>11956.17</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>11984.24</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>11994.17</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>11998.97</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>12062.05</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>12094.83</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>12160.64</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>12170.24</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>12159.32</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>12239.95</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>12246.12</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>12281.32</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>12281.32</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>12178.77</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>12187.79</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -3080,7 +3083,7 @@
         <v>12165.29</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>12123.86</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>12114.13</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>12146.03</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>12138.55</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3120,7 +3123,7 @@
         <v>12106.32</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>12084.42</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>12073.6</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>12036.94</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>11999.21</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>11882.88</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3168,7 +3171,7 @@
         <v>11662.49</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>11501.06</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>11571.43</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>11599.55</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3200,7 +3203,7 @@
         <v>11566.54</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3208,7 +3211,7 @@
         <v>11562</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3216,7 +3219,7 @@
         <v>11515.09</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>11457.9</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>11433.44</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>11366.22</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>11359.06</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -3256,7 +3259,7 @@
         <v>11323.71</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3264,7 +3267,7 @@
         <v>11291.66</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3272,7 +3275,7 @@
         <v>11244.4</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>11204.58</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -3288,7 +3291,7 @@
         <v>11225.42</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>11211.4</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>11266.18</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>11370.04</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>11477.08</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>11539.03</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>11583.62</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>11653.94</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>11678.32</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>11703.57</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -3368,7 +3371,7 @@
         <v>11758.93</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -3376,7 +3379,7 @@
         <v>11784.9</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -3384,7 +3387,7 @@
         <v>11827.68</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>11901.69</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>12075.64</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>12139.81</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>12134.6</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -3424,7 +3427,7 @@
         <v>12160.57</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -3432,7 +3435,7 @@
         <v>12180.16</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>12158.19</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>12152.92</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>12032.38</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -3464,7 +3467,7 @@
         <v>12017</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>12001.26</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>12017.65</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>12065.23</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>12076.58</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -3504,7 +3507,7 @@
         <v>12088.08</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>12117.99</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>12123.49</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>12121.24</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>12119.72</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>12166.26</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -3552,7 +3555,7 @@
         <v>12215.52</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>12278.47</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>12307.66</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>12379.19</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -3584,7 +3587,7 @@
         <v>12425.67</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>12519.85</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -3600,7 +3603,7 @@
         <v>12582.58</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -3608,7 +3611,7 @@
         <v>12640.35</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -3616,7 +3619,7 @@
         <v>12695.47</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>12713.38</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>12721.52</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>12757.47</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>12750.52</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -3656,7 +3659,7 @@
         <v>12748.54</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>12773.92</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>12756.97</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>12725.31</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>12741.31</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -3696,7 +3699,7 @@
         <v>12779.93</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>12846.15</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>12935.56</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -3720,7 +3723,7 @@
         <v>13007.03</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -3728,7 +3731,7 @@
         <v>12994.23</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>13042.21</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -3744,7 +3747,7 @@
         <v>13104.28</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -3752,7 +3755,7 @@
         <v>13328.68</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -3760,7 +3763,7 @@
         <v>13591.86</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -3768,7 +3771,7 @@
         <v>13471.67</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -3776,7 +3779,7 @@
         <v>13391.67</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>13420.96</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>13386.61</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -3800,7 +3803,7 @@
         <v>13345.91</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -3808,7 +3811,7 @@
         <v>13325.09</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>13417.98</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>13455.9</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -3832,7 +3835,7 @@
         <v>13557.8</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>13616.76</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>13715.68</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -3856,7 +3859,7 @@
         <v>13781.8</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>13914.86</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -3872,7 +3875,7 @@
         <v>14079.74</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -3880,7 +3883,7 @@
         <v>15244.03</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>15468.56</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -3896,7 +3899,7 @@
         <v>15383.93</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>15314.58</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>15108.1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>14919.81</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>14743.14</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>14698.36</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>14854.82</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>15066.38</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>15184.39</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -3968,7 +3971,7 @@
         <v>15335.57</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>15484.05</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>15666.3</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>16223.65</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>16658.16</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -4008,7 +4011,7 @@
         <v>16568.34</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>16543.669999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>16735.14</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>17173.34</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -4040,7 +4043,7 @@
         <v>17520.849999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>17986.79</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>18457.099999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>18180.78</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>17939.240000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>18225.2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -4088,7 +4091,7 @@
         <v>19133.919999999998</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -4096,7 +4099,7 @@
         <v>20316.400000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>20089.96</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -4112,7 +4115,7 @@
         <v>19778.099999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -4120,7 +4123,7 @@
         <v>19438.7</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>18955.66</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -4136,7 +4139,7 @@
         <v>19436.650000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -4144,7 +4147,7 @@
         <v>19750.990000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>19528.689999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>19109.330000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>18860.71</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -4176,7 +4179,7 @@
         <v>18607.07</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>18170.89</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -4192,7 +4195,7 @@
         <v>18045.54</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>18243.75</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>18335.150000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>18337.47</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>18312.32</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>18239.63</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v>18179.97</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>18119.509999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>18059.189999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>17926.009999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>17745.79</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>17340.77</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>16291.07</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>16564.79</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>16777.39</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>16912.330000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>16881.060000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>16974.02</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -4336,7 +4339,7 @@
         <v>16991.599999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>16920.79</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -4352,7 +4355,7 @@
         <v>16997.23</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -4360,7 +4363,7 @@
         <v>16943.32</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>16965.169999999998</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>17383.16</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>17519.560000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>17503.240000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>17552.04</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>17583.259999999998</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>17614.099999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>17565.669999999998</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>17553.5</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -4440,7 +4443,7 @@
         <v>17575.5</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v>17552.09</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>17606.03</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>17542.419999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -4472,7 +4475,7 @@
         <v>17485.28</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -4480,7 +4483,7 @@
         <v>17390.38</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>17260.45</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>17208.27</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>17224.71</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>17305.37</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>17372.419999999998</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -4528,7 +4531,7 @@
         <v>17386.47</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>17364.25</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>17357.28</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -4552,7 +4555,7 @@
         <v>17330.96</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -4560,7 +4563,7 @@
         <v>17291.37</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>17179.21</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>17071.900000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>16945.73</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -4592,7 +4595,7 @@
         <v>16797.57</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>16867.13</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -4608,7 +4611,7 @@
         <v>16914.04</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>16858.25</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>16737.060000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>16638.78</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -4640,7 +4643,7 @@
         <v>16486.96</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -4648,7 +4651,7 @@
         <v>16269.53</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>16002.34</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>15803.35</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -4672,7 +4675,7 @@
         <v>15529.13</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>15508.87</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -4688,7 +4691,7 @@
         <v>15502.12</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -4696,7 +4699,7 @@
         <v>15624.09</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -4704,7 +4707,7 @@
         <v>15736.27</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -4712,7 +4715,7 @@
         <v>15852.88</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -4720,7 +4723,7 @@
         <v>15899.13</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>15831.97</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -4736,7 +4739,7 @@
         <v>15831.91</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>15794.45</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>15684.87</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>15584.77</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>15503.49</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -4776,7 +4779,7 @@
         <v>15444.39</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>15349.45</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>15364.94</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>15368.64</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>15284.5</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -4816,7 +4819,7 @@
         <v>15382.01</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -4824,7 +4827,7 @@
         <v>15289.58</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>15292.5</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -4840,7 +4843,7 @@
         <v>15324.6</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>15328.08</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -4856,7 +4859,7 @@
         <v>15318.65</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -4864,7 +4867,7 @@
         <v>15323.72</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -4872,7 +4875,7 @@
         <v>15418.83</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -4880,7 +4883,7 @@
         <v>15448.84</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>15569.41</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -4896,7 +4899,7 @@
         <v>15647.18</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -4904,7 +4907,7 @@
         <v>15745.06</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -4912,7 +4915,7 @@
         <v>15860.55</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>16046.45</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -4928,7 +4931,7 @@
         <v>16232.25</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -4936,7 +4939,7 @@
         <v>16411.78</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -4944,7 +4947,7 @@
         <v>16435.39</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -4952,7 +4955,7 @@
         <v>16534.060000000001</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -4960,7 +4963,7 @@
         <v>16496.669999999998</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -4968,7 +4971,7 @@
         <v>16455.8</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -4976,7 +4979,7 @@
         <v>16380.33</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>16342.65</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>16281.25</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>16315.5</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -5008,7 +5011,7 @@
         <v>16389.96</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>16467.419999999998</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>16468.3</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>16536.73</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -5040,7 +5043,7 @@
         <v>16601.98</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -5048,7 +5051,7 @@
         <v>16646.099999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -5056,7 +5059,7 @@
         <v>16728.189999999999</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -5064,7 +5067,7 @@
         <v>16809.07</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>16953.7</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>17165.2</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -5088,7 +5091,7 @@
         <v>17220.509999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -5096,7 +5099,7 @@
         <v>17307.88</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -5104,7 +5107,7 @@
         <v>17347.64</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>17355.96</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>17346</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -5128,7 +5131,7 @@
         <v>17373.91</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>17399.099999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>17444.490000000002</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -5152,7 +5155,7 @@
         <v>17534.419999999998</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>17633.38</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -5168,7 +5171,7 @@
         <v>17772.330000000002</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>18111.53</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -5184,7 +5187,7 @@
         <v>18360.560000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -5192,7 +5195,7 @@
         <v>18390.37</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -5200,7 +5203,7 @@
         <v>18135.54</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>18111.919999999998</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>18088.23</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -5224,7 +5227,7 @@
         <v>17983</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -5232,7 +5235,7 @@
         <v>17941.7</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>17968.599999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -5248,7 +5251,7 @@
         <v>17876.14</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -5256,7 +5259,7 @@
         <v>17914.740000000002</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -5264,7 +5267,7 @@
         <v>17880.810000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -5272,7 +5275,7 @@
         <v>17906.39</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>17861.669999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>17885.7</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>17821.72</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>17804.990000000002</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -5312,7 +5315,7 @@
         <v>17819.439999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>17857.84</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -5328,7 +5331,7 @@
         <v>17779.310000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>17864.38</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -5344,7 +5347,7 @@
         <v>17855.61</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>17790.87</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>17781.21</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -5368,7 +5371,7 @@
         <v>17719.34</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -5376,7 +5379,7 @@
         <v>17692.599999999999</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -5384,7 +5387,7 @@
         <v>17682.740000000002</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -5392,7 +5395,7 @@
         <v>17050.759999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -5400,7 +5403,7 @@
         <v>16734.04</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -5408,7 +5411,7 @@
         <v>16219.21</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>16836.96</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -5424,7 +5427,7 @@
         <v>16966.91</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -5432,7 +5435,7 @@
         <v>16881.64</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -5440,7 +5443,7 @@
         <v>16826.45</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>16734.23</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -5456,7 +5459,7 @@
         <v>16610.73</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -5464,7 +5467,7 @@
         <v>16635.59</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -5472,7 +5475,7 @@
         <v>16650.02</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -5480,7 +5483,7 @@
         <v>16599.64</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>16584.43</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -5496,7 +5499,7 @@
         <v>16583.87</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>16618.32</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -5512,7 +5515,7 @@
         <v>16677.52</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>16648.45</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -5528,7 +5531,7 @@
         <v>16582.07</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>16439.63</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -5544,7 +5547,7 @@
         <v>16350.9</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -5552,7 +5555,7 @@
         <v>16194.06</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>16028.06</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -5568,7 +5571,7 @@
         <v>15850.78</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>15727.39</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -5584,7 +5587,7 @@
         <v>15697.64</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>15613.83</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -5600,7 +5603,7 @@
         <v>15577.64</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>451</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>15395.82</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>452</v>
       </c>
@@ -5616,7 +5619,7 @@
         <v>14922.01</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
         <v>453</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>14285.24</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
         <v>454</v>
       </c>
@@ -5632,7 +5635,7 @@
         <v>14319.24</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
         <v>455</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>14531.75</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
         <v>456</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>14809.57</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
         <v>457</v>
       </c>
@@ -5656,7 +5659,7 @@
         <v>15067.95</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
         <v>458</v>
       </c>
@@ -5664,7 +5667,7 @@
         <v>15156.78</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
         <v>459</v>
       </c>
@@ -5672,7 +5675,7 @@
         <v>15164.37</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>15081.03</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
         <v>461</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>15092.35</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v>15096.16</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
         <v>463</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>15004.37</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
         <v>464</v>
       </c>
@@ -5712,7 +5715,7 @@
         <v>14966.24</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
         <v>465</v>
       </c>
@@ -5720,7 +5723,7 @@
         <v>14827.59</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>14640.86</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
         <v>467</v>
       </c>
@@ -5736,7 +5739,7 @@
         <v>14563</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>14490.5</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
         <v>469</v>
       </c>
@@ -5752,7 +5755,7 @@
         <v>14301.42</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>14163.53</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
         <v>471</v>
       </c>
@@ -5768,7 +5771,7 @@
         <v>13615.97</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -5776,7 +5779,7 @@
         <v>12857.6</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
         <v>473</v>
       </c>
@@ -5784,7 +5787,7 @@
         <v>13498.13</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -5792,7 +5795,7 @@
         <v>13438.12</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
         <v>475</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>13355.54</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
         <v>476</v>
       </c>
@@ -5808,7 +5811,7 @@
         <v>13171.53</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
         <v>477</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>13164.78</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -5824,7 +5827,7 @@
         <v>13171.02</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -5832,7 +5835,7 @@
         <v>13274.08</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -5840,7 +5843,7 @@
         <v>13299.33</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>13349.59</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -5856,7 +5859,7 @@
         <v>13660.73</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>13778.63</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>13889.9</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
         <v>485</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>14006.85</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>14103.08</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
         <v>487</v>
       </c>
@@ -5896,7 +5899,7 @@
         <v>14159.68</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>14169.68</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>14245.83</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -5920,7 +5923,7 @@
         <v>14212.54</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>14351.54</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -5936,7 +5939,7 @@
         <v>14461.78</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
         <v>493</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>14496.29</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
         <v>494</v>
       </c>
@@ -5952,7 +5955,7 @@
         <v>14561.07</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
         <v>495</v>
       </c>
@@ -5960,7 +5963,7 @@
         <v>14529.66</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -5968,7 +5971,7 @@
         <v>14553.8</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>14523.02</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
         <v>498</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>14423.31</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
         <v>499</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>14446.37</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
         <v>500</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>14445.93</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
         <v>501</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>14281.48</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
         <v>502</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>14197.69</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
         <v>503</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>14157.34</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
         <v>504</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>14079.59</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
         <v>505</v>
       </c>
@@ -6040,7 +6043,7 @@
         <v>14063.3</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
         <v>506</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>14058.85</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
         <v>507</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>13993.02</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
         <v>508</v>
       </c>
@@ -6064,7 +6067,7 @@
         <v>13998.91</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
         <v>509</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>13969.73</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
         <v>510</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>13896.95</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
         <v>511</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>13813.37</v>
       </c>
     </row>
-    <row r="513" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
         <v>512</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>13738.72</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
         <v>513</v>
       </c>
@@ -6104,7 +6107,7 @@
         <v>13708.57</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
         <v>514</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>13722.39</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
         <v>515</v>
       </c>
@@ -6120,7 +6123,7 @@
         <v>13742.87</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
         <v>516</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>13814.88</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
         <v>517</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>13860.3</v>
       </c>
     </row>
-    <row r="519" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
         <v>518</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>13926.04</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
         <v>519</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>13969.05</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
         <v>520</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>13970.92</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
         <v>521</v>
       </c>
@@ -6168,7 +6171,7 @@
         <v>13966.03</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
         <v>522</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>14048.24</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
         <v>523</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>14059.9</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
         <v>524</v>
       </c>
@@ -6192,7 +6195,7 @@
         <v>14032.47</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
         <v>525</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>14059.7</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
         <v>526</v>
       </c>
@@ -6208,13 +6211,6 @@
         <v>14033.06</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="14.25" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
